--- a/test-summary.xlsx
+++ b/test-summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Suite Name</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>SampleRun1</t>
+  </si>
+  <si>
+    <t>SampleRun2</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -492,6 +495,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/test-summary.xlsx
+++ b/test-summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Suite Name</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>SampleRun2</t>
+  </si>
+  <si>
+    <t>SampleRun3</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -509,6 +512,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/test-summary.xlsx
+++ b/test-summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Suite Name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>SampleRun3</t>
+  </si>
+  <si>
+    <t>SampleRun4</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -526,6 +529,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
